--- a/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X199"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15330,13 +15333,13 @@
         <v>216</v>
       </c>
       <c r="B194">
-        <v>4263724</v>
+        <v>4263723</v>
       </c>
       <c r="C194">
         <v>3644301</v>
       </c>
       <c r="D194">
-        <v>46098</v>
+        <v>46097</v>
       </c>
       <c r="E194">
         <v>239648</v>
@@ -15478,13 +15481,13 @@
         <v>218</v>
       </c>
       <c r="B196">
-        <v>4266016</v>
+        <v>4246316</v>
       </c>
       <c r="C196">
         <v>3114742</v>
       </c>
       <c r="D196">
-        <v>105792</v>
+        <v>105791</v>
       </c>
       <c r="E196">
         <v>231514</v>
@@ -15499,7 +15502,7 @@
         <v>372897</v>
       </c>
       <c r="I196">
-        <v>407311</v>
+        <v>387611</v>
       </c>
       <c r="J196">
         <v>5256716</v>
@@ -15523,7 +15526,7 @@
         <v>7741</v>
       </c>
       <c r="Q196">
-        <v>-990699</v>
+        <v>-1010399</v>
       </c>
       <c r="R196">
         <v>643486</v>
@@ -15538,13 +15541,13 @@
         <v>312586</v>
       </c>
       <c r="V196">
-        <v>4267281</v>
+        <v>4247580</v>
       </c>
       <c r="W196">
         <v>5901465</v>
       </c>
       <c r="X196">
-        <v>-1634185</v>
+        <v>-1653885</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15552,13 +15555,13 @@
         <v>219</v>
       </c>
       <c r="B197">
-        <v>6816899</v>
+        <v>6816900</v>
       </c>
       <c r="C197">
         <v>5928315</v>
       </c>
       <c r="D197">
-        <v>166596</v>
+        <v>166597</v>
       </c>
       <c r="E197">
         <v>227097</v>
@@ -15612,13 +15615,13 @@
         <v>256618</v>
       </c>
       <c r="V197">
-        <v>6817229</v>
+        <v>6817230</v>
       </c>
       <c r="W197">
         <v>5404009</v>
       </c>
       <c r="X197">
-        <v>1413220</v>
+        <v>1413221</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15700,7 +15703,7 @@
         <v>221</v>
       </c>
       <c r="B199">
-        <v>3713146</v>
+        <v>3732846</v>
       </c>
       <c r="C199">
         <v>2757722</v>
@@ -15721,7 +15724,7 @@
         <v>73921</v>
       </c>
       <c r="I199">
-        <v>154923</v>
+        <v>174624</v>
       </c>
       <c r="J199">
         <v>5317484</v>
@@ -15745,7 +15748,7 @@
         <v>8153</v>
       </c>
       <c r="Q199">
-        <v>-1604338</v>
+        <v>-1584638</v>
       </c>
       <c r="R199">
         <v>671374</v>
@@ -15760,13 +15763,87 @@
         <v>321100</v>
       </c>
       <c r="V199">
-        <v>3713341</v>
+        <v>3733041</v>
       </c>
       <c r="W199">
         <v>5989053</v>
       </c>
       <c r="X199">
-        <v>-2275712</v>
+        <v>-2256012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
+      <c r="A200" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200">
+        <v>4139698</v>
+      </c>
+      <c r="C200">
+        <v>3254655</v>
+      </c>
+      <c r="D200">
+        <v>291577</v>
+      </c>
+      <c r="E200">
+        <v>231852</v>
+      </c>
+      <c r="F200">
+        <v>3554</v>
+      </c>
+      <c r="G200">
+        <v>37084</v>
+      </c>
+      <c r="H200">
+        <v>78197</v>
+      </c>
+      <c r="I200">
+        <v>242779</v>
+      </c>
+      <c r="J200">
+        <v>7002501</v>
+      </c>
+      <c r="K200">
+        <v>876783</v>
+      </c>
+      <c r="L200">
+        <v>372509</v>
+      </c>
+      <c r="M200">
+        <v>333929</v>
+      </c>
+      <c r="N200">
+        <v>4692589</v>
+      </c>
+      <c r="O200">
+        <v>703576</v>
+      </c>
+      <c r="P200">
+        <v>23115</v>
+      </c>
+      <c r="Q200">
+        <v>-2862802</v>
+      </c>
+      <c r="R200">
+        <v>569551</v>
+      </c>
+      <c r="S200">
+        <v>574</v>
+      </c>
+      <c r="T200">
+        <v>297190</v>
+      </c>
+      <c r="U200">
+        <v>272935</v>
+      </c>
+      <c r="V200">
+        <v>4140273</v>
+      </c>
+      <c r="W200">
+        <v>7572625</v>
+      </c>
+      <c r="X200">
+        <v>-3432353</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15846,6 +15849,80 @@
         <v>-3432353</v>
       </c>
     </row>
+    <row r="201" spans="1:24">
+      <c r="A201" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201">
+        <v>4630173</v>
+      </c>
+      <c r="C201">
+        <v>3771891</v>
+      </c>
+      <c r="D201">
+        <v>283726</v>
+      </c>
+      <c r="E201">
+        <v>227471</v>
+      </c>
+      <c r="F201">
+        <v>9304</v>
+      </c>
+      <c r="G201">
+        <v>27425</v>
+      </c>
+      <c r="H201">
+        <v>102335</v>
+      </c>
+      <c r="I201">
+        <v>208020</v>
+      </c>
+      <c r="J201">
+        <v>6091978</v>
+      </c>
+      <c r="K201">
+        <v>862709</v>
+      </c>
+      <c r="L201">
+        <v>345314</v>
+      </c>
+      <c r="M201">
+        <v>29442</v>
+      </c>
+      <c r="N201">
+        <v>4250669</v>
+      </c>
+      <c r="O201">
+        <v>597212</v>
+      </c>
+      <c r="P201">
+        <v>6632</v>
+      </c>
+      <c r="Q201">
+        <v>-1461804</v>
+      </c>
+      <c r="R201">
+        <v>589941</v>
+      </c>
+      <c r="S201">
+        <v>504</v>
+      </c>
+      <c r="T201">
+        <v>331952</v>
+      </c>
+      <c r="U201">
+        <v>258492</v>
+      </c>
+      <c r="V201">
+        <v>4630677</v>
+      </c>
+      <c r="W201">
+        <v>6682422</v>
+      </c>
+      <c r="X201">
+        <v>-2051745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X201"/>
+  <dimension ref="A1:X202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15727,7 +15730,7 @@
         <v>73921</v>
       </c>
       <c r="I199">
-        <v>174624</v>
+        <v>174623</v>
       </c>
       <c r="J199">
         <v>5317484</v>
@@ -15921,6 +15924,80 @@
       </c>
       <c r="X201">
         <v>-2051745</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202">
+        <v>5345874</v>
+      </c>
+      <c r="C202">
+        <v>4216499</v>
+      </c>
+      <c r="D202">
+        <v>280321</v>
+      </c>
+      <c r="E202">
+        <v>239920</v>
+      </c>
+      <c r="F202">
+        <v>5437</v>
+      </c>
+      <c r="G202">
+        <v>102034</v>
+      </c>
+      <c r="H202">
+        <v>75252</v>
+      </c>
+      <c r="I202">
+        <v>426411</v>
+      </c>
+      <c r="J202">
+        <v>7109209</v>
+      </c>
+      <c r="K202">
+        <v>1119042</v>
+      </c>
+      <c r="L202">
+        <v>396101</v>
+      </c>
+      <c r="M202">
+        <v>512603</v>
+      </c>
+      <c r="N202">
+        <v>4349669</v>
+      </c>
+      <c r="O202">
+        <v>720658</v>
+      </c>
+      <c r="P202">
+        <v>11134</v>
+      </c>
+      <c r="Q202">
+        <v>-1763335</v>
+      </c>
+      <c r="R202">
+        <v>663253</v>
+      </c>
+      <c r="S202">
+        <v>248</v>
+      </c>
+      <c r="T202">
+        <v>346882</v>
+      </c>
+      <c r="U202">
+        <v>316619</v>
+      </c>
+      <c r="V202">
+        <v>5346121</v>
+      </c>
+      <c r="W202">
+        <v>7772710</v>
+      </c>
+      <c r="X202">
+        <v>-2426589</v>
       </c>
     </row>
   </sheetData>
